--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 1</t>
+    <t>Акт № 14-27 / 7</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>МОЛ2</t>
+    <t>Олейников В.Ф.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -94,9 +94,6 @@
     <t>Наименование запчасти ОС</t>
   </si>
   <si>
-    <t>Картридж</t>
-  </si>
-  <si>
     <t>Жесткий диск</t>
   </si>
   <si>
@@ -109,13 +106,10 @@
     <t>Единицы измерения</t>
   </si>
   <si>
-    <t>Картридж Kingston 250x TTT Cart</t>
-  </si>
-  <si>
-    <t>3453333</t>
-  </si>
-  <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t>6767567</t>
@@ -841,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -857,7 +851,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -873,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -882,7 +876,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
@@ -894,12 +888,12 @@
         <v>1</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="s">
@@ -915,12 +909,12 @@
         <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
@@ -933,7 +927,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -946,81 +940,81 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44" s="5"/>
     </row>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 7</t>
+    <t>Акт № 14-27 / 8</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon asd</t>
-  </si>
-  <si>
-    <t>354354</t>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>24234324</t>
   </si>
   <si>
     <t>шт</t>
@@ -109,10 +109,10 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>6767567</t>
+  </si>
+  <si>
     <t>777777</t>
-  </si>
-  <si>
-    <t>6767567</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 8</t>
+    <t>Акт № 14-27 / 9</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 9</t>
+    <t>Акт № 14-27 / 13</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 13</t>
+    <t>Акт № 14-27 / 16</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -112,7 +112,7 @@
     <t>6767567</t>
   </si>
   <si>
-    <t>777777</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 16</t>
+    <t>Акт № 14-27 / 17</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -849,177 +852,257 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>2</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>2</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="65">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1048,25 +1131,27 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
@@ -1075,6 +1160,14 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 16</t>
+    <t>Акт № 14-27 / 17</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -109,10 +109,13 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
+  </si>
+  <si>
     <t>6767567</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -849,177 +852,257 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>2</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>2</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="65">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1048,25 +1131,27 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
@@ -1075,6 +1160,14 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 17</t>
+    <t>Акт № 14-27 / 18</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -109,13 +109,13 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>777777</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
     <t>6767567</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -976,7 +976,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
@@ -997,7 +997,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 18</t>
+    <t>Акт № 14-27 / 19</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>24234324</t>
+    <t>asd1313</t>
   </si>
   <si>
     <t>шт</t>
@@ -109,13 +109,7 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>777777</t>
-  </si>
-  <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>6767567</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -584,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -852,257 +846,177 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
     <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>15</v>
+      <c r="A32" s="11">
+        <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>4</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="C38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="55">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1131,27 +1045,25 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
@@ -1160,14 +1072,6 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 19</t>
+    <t>Акт № 14-27 / 20</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Денисенко А.Г.</t>
+    <t>Олейников В.Ф.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>asd1313</t>
+    <t>24234324</t>
   </si>
   <si>
     <t>шт</t>
@@ -109,7 +109,13 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
+    <t>6767567</t>
+  </si>
+  <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>777777</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -846,177 +852,257 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>2</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>2</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="65">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1045,25 +1131,27 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
@@ -1072,6 +1160,14 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 20</t>
+    <t>Акт № 14-27 / 21</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Олейников В.Ф.</t>
+    <t>Шевченко А.В.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,10 +79,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>24234324</t>
+    <t>Принтер HP Printer</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
   <si>
     <t>шт</t>
@@ -109,13 +109,7 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>6767567</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>777777</t>
+    <t>312123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -584,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -833,276 +827,156 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>1</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>4</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="C36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="50">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1129,45 +1003,30 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 21</t>
+    <t>Акт № 14-27 / 17</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Материально-ответственное лицо: </t>
   </si>
   <si>
-    <t>Шевченко А.В.</t>
+    <t>Денисенко А.Г.</t>
   </si>
   <si>
     <t>Мы нижеподписавшиеся:</t>
@@ -79,37 +79,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер HP Printer</t>
+    <t>Принтер Canon Test Cannon1</t>
+  </si>
+  <si>
+    <t>56456</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>была заменена вышедшая из строя запчасть:</t>
+  </si>
+  <si>
+    <t>Наименование запчасти ОС</t>
+  </si>
+  <si>
+    <t>Жесткий диск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на следующую материальную ценность: </t>
+  </si>
+  <si>
+    <t>Наименование МЦ</t>
+  </si>
+  <si>
+    <t>Единицы измерения</t>
+  </si>
+  <si>
+    <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>была заменена вышедшая из строя запчасть:</t>
-  </si>
-  <si>
-    <t>Наименование запчасти ОС</t>
-  </si>
-  <si>
-    <t>Жесткий диск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">на следующую материальную ценность: </t>
-  </si>
-  <si>
-    <t>Наименование МЦ</t>
-  </si>
-  <si>
-    <t>Единицы измерения</t>
-  </si>
-  <si>
-    <t>Жесткий диск Canon WD BLUE 2563</t>
-  </si>
-  <si>
-    <t>312123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 17</t>
+    <t>Акт № 14-27 / 23</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>56456</t>
+    <t>asd1313</t>
   </si>
   <si>
     <t>шт</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -827,156 +830,236 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>2</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="5"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="60">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1003,22 +1086,24 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A37:I37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="B40:C40"/>
@@ -1027,6 +1112,14 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 23</t>
+    <t>Акт № 14-27 / 18</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>asd1313</t>
+    <t>56456</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,6 +94,9 @@
     <t>Наименование запчасти ОС</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>Жесткий диск</t>
   </si>
   <si>
@@ -106,13 +109,16 @@
     <t>Единицы измерения</t>
   </si>
   <si>
+    <t>test1 HP sadsadasd</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>3123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -581,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B24" sqref="B24"/>
@@ -822,12 +828,10 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>20</v>
+      <c r="I25" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -845,74 +849,74 @@
         <v>23</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>15</v>
+      <c r="A31" s="11">
+        <v>1</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>19</v>
+      <c r="I31" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
@@ -923,143 +927,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>2</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>3</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="55">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1088,22 +1050,21 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="B40:C40"/>
@@ -1116,10 +1077,6 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/docs/test20.xlsx
+++ b/backend/docs/test20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -28,7 +28,7 @@
     <t>________________ О.А. Чмиль</t>
   </si>
   <si>
-    <t>Акт № 14-27 / 18</t>
+    <t>Акт № 14-27 / 24</t>
   </si>
   <si>
     <t>о списании материальных ценностей при осуществлении ремонта основного средства.</t>
@@ -82,7 +82,7 @@
     <t>Принтер Canon Test Cannon1</t>
   </si>
   <si>
-    <t>56456</t>
+    <t>asd1313</t>
   </si>
   <si>
     <t>шт</t>
@@ -94,9 +94,6 @@
     <t>Наименование запчасти ОС</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t>Жесткий диск</t>
   </si>
   <si>
@@ -109,16 +106,13 @@
     <t>Единицы измерения</t>
   </si>
   <si>
-    <t>test1 HP sadsadasd</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>3123123</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -828,7 +822,9 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
         <v>1</v>
@@ -839,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -850,12 +846,12 @@
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -871,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -880,7 +876,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
@@ -892,15 +888,17 @@
         <v>1</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11">
         <v>1</v>
@@ -911,12 +909,12 @@
         <v>2</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
@@ -924,12 +922,12 @@
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -942,81 +940,81 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44" s="5"/>
     </row>
